--- a/biology/Botanique/Lindera_obtusiloba/Lindera_obtusiloba.xlsx
+++ b/biology/Botanique/Lindera_obtusiloba/Lindera_obtusiloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindera obtusiloba est un petit arbre de la famille des Lauracées, originaire d'Asie de l'Est.
 Nom chinois : 三桠乌药; nom coréen : 생강나무; nom Japonais : ダンコウバイ.
@@ -512,11 +524,13 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet arbre a été décrit par Carl Ludwig Blume en 1851 à partir d'un échantillon en provenance de Chine.
-En 1891, Carl Ernst Otto Kuntze déplace cette plante dans le genre Benzoin : Benzoin obtusilobum (Blume) Kuntze : cette modification n'est maintenant plus reconnue (le genre n'est plus valide)[1].
-Un synonyme est signalé : Lindera cercidifolia Hemsl.[2]
+En 1891, Carl Ernst Otto Kuntze déplace cette plante dans le genre Benzoin : Benzoin obtusilobum (Blume) Kuntze : cette modification n'est maintenant plus reconnue (le genre n'est plus valide).
+Un synonyme est signalé : Lindera cercidifolia Hemsl.
 Lindera obtusiloba compte des variétés et formes botaniques :
 Lindera obtusiloba var. heterophylla (Meisn.) H.B.Cui (1982) - synonyme : Lindera heterophylla Meisn.
 Lindera obtusiloba f. ovata (Nakai) T. B.Lee (1966) - non reconnue : voir Lindera obtusiloba - synonyme : Benzoin obtusilobum f. ovatum Nakai
@@ -551,14 +565,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre de 3 à 10 m de haut. Sa croissance est d'autant plus arborescente qu'il croit dans un milieu ombragé, fermé ou semi-fermé.
 Ses feuilles, caduques, sont trilobées de manière irrégulière (caractéristique de l'espèce) et prennent une jolie coloration jaune à l'automne.
 Les fleurs sont jaunes et parfumées.
 Comme la majorité des espèces du genre, les fleurs mâles, à 6 tépales, portent 9 étamines.
 Le fruit est une petite drupe de 8 mm de long sur 6 de large, rouge à maturité.
-Cette espèce compte 12 chromosomes[3].
+Cette espèce compte 12 chromosomes.
 			Feuilles
 			Fruits verts
 			Écorce
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire naturelle est très vaste : une grande partie de la Chine -  Anhui, Fujian, sud Gansu, Henan, Hubei, Hunan, Jiangsu, Jiangxi, sud Liaoning, sud Shaanxi, est Shandong, Sichuan, Xizang, nord-ouest du Yunnan, Zhejiang -, le Bhoutan, l'Inde, le Japon, la Corée et le Népal.
 </t>
@@ -622,9 +640,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile extraite des fruits est utilisée en médecine traditionnelle comme anti-inflammatoire. Des propriétés antiadipeuses viennent d'être découvertes en Allemagne[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile extraite des fruits est utilisée en médecine traditionnelle comme anti-inflammatoire. Des propriétés antiadipeuses viennent d'être découvertes en Allemagne.
 Il s'agit par ailleurs d'une jolie plante d'ornement, pour sa floraison et sa couleur automnale.
 </t>
         </is>
